--- a/AKS_architecture.xlsx
+++ b/AKS_architecture.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10717472\learning\kubernetes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10717472\learning\kubernetes\kubernetes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92D20072-3A02-4DFD-AA74-07CDED3B9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8BAC2D7-6626-4A5E-AEEC-B6DB65240B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{77B41ED9-F053-4946-BD87-6A8B1B78285F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Azure Kubernetes (AKS)</t>
   </si>
@@ -303,6 +303,9 @@
       </rPr>
       <t>Isolated environment where application runs</t>
     </r>
+  </si>
+  <si>
+    <t>AKS Pricing Tiers</t>
   </si>
 </sst>
 </file>
@@ -374,31 +377,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,6 +503,50 @@
         <a:xfrm>
           <a:off x="2333625" y="5029201"/>
           <a:ext cx="2489223" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601315</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>105232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441B108E-A5CF-00DD-32D7-6A65F8B63DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="7505700"/>
+          <a:ext cx="8888065" cy="3277057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB380584-CD3F-4F49-BD13-9FCE0270D9BC}">
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,168 +887,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="6" t="s">
         <v>3</v>
       </c>
@@ -1012,230 +1010,208 @@
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
       <c r="D19" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="6"/>
@@ -1252,168 +1228,134 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-    </row>
-    <row r="22" spans="1:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="10" t="s">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="3:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-    </row>
-    <row r="23" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="10" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-    </row>
-    <row r="24" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="10" t="s">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-    </row>
-    <row r="25" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="10" t="s">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="3:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="9"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1421,166 +1363,172 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="E9:M9"/>
